--- a/11_iOSApp開発/001_ニートいじり/01_設計書/DBデータ.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/DBデータ.xlsx
@@ -4,14 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="13800" windowHeight="13350" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="13800" windowHeight="13350" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="格言" sheetId="1" r:id="rId1"/>
     <sheet name="おかん" sheetId="4" r:id="rId2"/>
     <sheet name="役職" sheetId="5" r:id="rId3"/>
-    <sheet name="格言 (4)" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="ステージ" sheetId="6" r:id="rId4"/>
+    <sheet name="アイテム" sheetId="8" r:id="rId5"/>
+    <sheet name="行動" sheetId="9" r:id="rId6"/>
+    <sheet name="行動画像" sheetId="11" r:id="rId7"/>
+    <sheet name="アイテム獲得率" sheetId="12" r:id="rId8"/>
+    <sheet name="行動結果" sheetId="13" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">格言!$A$3:$C$3</definedName>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="222">
   <si>
     <t>格言M</t>
     <rPh sb="0" eb="2">
@@ -515,6 +519,618 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ名称</t>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ説明</t>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGMファイル名</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景ファイル名</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ステージID </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じぶんのへや</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいだん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ろうか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トイレ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おふろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げんかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いえのそと（夜）</t>
+    <rPh sb="6" eb="7">
+      <t>ヨル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じたくのへや、ぼくのしろだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じたくのかいだん、そとへのだいいっぽだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じたくのろうか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じたくのおふろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じたくげんかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぼくのいえのそと、ちかくにじはんきがある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じたくのといれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落ち着くところ.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外を歩こう.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03_03_01.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03_04_01.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03_05_01.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03_06_01.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03_07_01.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03_02_01.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03_01_01.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暇で忙しい.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">アイテムID </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動ID</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム名称</t>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム説明</t>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムファイル名</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加算裏達成ポイント</t>
+    <rPh sb="0" eb="2">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理時間</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用枠</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テレビみる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふとんくるまる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おかたづけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１だんおりる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３だんおりる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>したまでおりる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆかにねそべる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はしる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちらかったアレをかたづけるぞ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆうきをだしてかいだんをおりるぞ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もうすこしゆうきをだしておりるぞ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>したまでおりちゃうぞ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひんやりしたろうかにねそべるぞ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>へやでテレビをみるぞ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>06_01_01.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>06_02_01.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>06_03_01.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おどる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おどってみるぞ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はしってみるぞ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふとんのなかがいちばんほっとするじかんだぞ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動M</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">行動ID </t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動名称</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期X座標</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期Y座標</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可動最少X座標</t>
+    <rPh sb="0" eb="2">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可動最少Y座標</t>
+    <rPh sb="0" eb="2">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可動最大Y座標</t>
+    <rPh sb="0" eb="2">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可動最大X座標</t>
+    <rPh sb="0" eb="2">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダムウォーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定点キョロキョロ</t>
+    <rPh sb="0" eb="2">
+      <t>テイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動画像M</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動ファイル名</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方向</t>
+    <rPh sb="0" eb="2">
+      <t>ホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04_01_01_01_01.PNG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04_01_01_01_02.PNG</t>
+  </si>
+  <si>
+    <t>04_01_01_01_03.PNG</t>
+  </si>
+  <si>
+    <t>04_01_01_01_04.PNG</t>
+  </si>
+  <si>
+    <t>04_01_01_01_05.PNG</t>
+  </si>
+  <si>
+    <t>04_01_01_01_06.PNG</t>
+  </si>
+  <si>
+    <t>04_01_01_01_07.PNG</t>
+  </si>
+  <si>
+    <t>04_01_01_01_08.PNG</t>
+  </si>
+  <si>
+    <t>04_01_01_01_09.PNG</t>
+  </si>
+  <si>
+    <t>04_01_01_01_10.PNG</t>
+  </si>
+  <si>
+    <t>04_01_01_01_11.PNG</t>
+  </si>
+  <si>
+    <t>04_01_01_01_12.PNG</t>
+  </si>
+  <si>
+    <t>アイテムID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>獲得アイテムID</t>
+    <rPh sb="0" eb="2">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>獲得率</t>
+    <rPh sb="0" eb="2">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動結果</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動結果ID</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果メッセージ</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果確率</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニュースを見て外にでたくなった！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつものもえアニメをみてしまった・・・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おきにいりのフィギュアをながめていた。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1272,7 +1888,7 @@
       <selection activeCell="C51" sqref="C51"/>
       <selection pane="topRight" activeCell="C51" sqref="C51"/>
       <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1749,369 +2365,375 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C33"/>
+  <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C51" sqref="C51"/>
-      <selection pane="topRight" activeCell="C51" sqref="C51"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
-      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
+      <selection activeCell="C20" sqref="C20"/>
+      <selection pane="topRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>34</v>
-      </c>
+    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2122,13 +2744,1964 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C20" sqref="C20"/>
+      <selection pane="topRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C20" sqref="C20"/>
+      <selection pane="topRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="4"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C20" sqref="C20"/>
+      <selection pane="topRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C20" sqref="C20"/>
+      <selection pane="topRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="4"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/11_iOSApp開発/001_ニートいじり/01_設計書/DBデータ.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/DBデータ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="13800" windowHeight="13350" activeTab="8"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="13800" windowHeight="13350" tabRatio="867" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="格言" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="227">
   <si>
     <t>格言M</t>
     <rPh sb="0" eb="2">
@@ -680,13 +680,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>行動ID</t>
-    <rPh sb="0" eb="2">
-      <t>コウドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテム名称</t>
     <rPh sb="4" eb="6">
       <t>メイショウ</t>
@@ -1131,6 +1124,32 @@
   </si>
   <si>
     <t>おきにいりのフィギュアをながめていた。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション区分</t>
+    <rPh sb="7" eb="9">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1154,7 +1173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1164,6 +1183,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,12 +1226,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2744,36 +2781,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J33"/>
+  <dimension ref="A2:P33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C20" sqref="C20"/>
       <selection pane="topRight" activeCell="C20" sqref="C20"/>
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>139</v>
       </c>
@@ -2799,13 +2838,31 @@
         <v>146</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>147</v>
+        <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2813,287 +2870,449 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>165</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>166</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J4" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J5" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J6" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>167</v>
+        <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J7" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J8" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J8" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J9" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J9" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>168</v>
+        <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J10" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J10" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>169</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J11" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J11" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J12" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J12" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3104,20 +3323,32 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3128,20 +3359,32 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3152,8 +3395,14 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3164,8 +3413,14 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3176,8 +3431,14 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3188,8 +3449,14 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3200,20 +3467,32 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3224,8 +3503,14 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3236,8 +3521,14 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3248,8 +3539,14 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3260,32 +3557,50 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3296,8 +3611,14 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3308,8 +3629,14 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3320,8 +3647,14 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3332,8 +3665,14 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3344,6 +3683,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3354,14 +3699,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I33"/>
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C20" sqref="C20"/>
       <selection pane="topRight" activeCell="C20" sqref="C20"/>
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:I9"/>
+      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3375,477 +3723,496 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
     <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="G8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D9" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G9" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="H9" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3856,319 +4223,261 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D33"/>
+  <dimension ref="A2:C33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C20" sqref="C20"/>
       <selection pane="topRight" activeCell="C20" sqref="C20"/>
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:D15"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4186,7 +4495,7 @@
       <selection activeCell="C20" sqref="C20"/>
       <selection pane="topRight" activeCell="C20" sqref="C20"/>
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:C18"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4199,13 +4508,13 @@
   <sheetData>
     <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4213,10 +4522,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4224,10 +4533,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4235,10 +4544,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4246,10 +4555,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4257,120 +4566,120 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4459,12 +4768,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="A3" sqref="A3"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4478,21 +4787,21 @@
   <sheetData>
     <row r="2" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4503,10 +4812,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4514,13 +4823,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4528,13 +4837,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/11_iOSApp開発/001_ニートいじり/01_設計書/DBデータ.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/DBデータ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="13800" windowHeight="13350" tabRatio="867" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="13800" windowHeight="13350" tabRatio="867" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="格言" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="229">
   <si>
     <t>格言M</t>
     <rPh sb="0" eb="2">
@@ -1150,6 +1150,17 @@
   </si>
   <si>
     <t>アイテムID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連番</t>
+    <rPh sb="0" eb="2">
+      <t>レンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2783,12 +2794,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C20" sqref="C20"/>
       <selection pane="topRight" activeCell="C20" sqref="C20"/>
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
-      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4223,261 +4234,319 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C33"/>
+  <dimension ref="A2:D33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C20" sqref="C20"/>
       <selection pane="topRight" activeCell="C20" sqref="C20"/>
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
-      <c r="B22" s="4"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
-      <c r="B27" s="4"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
